--- a/data/SalesForceAssessment.xlsx
+++ b/data/SalesForceAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Full Stack Automation\Project\salesforce_Assessment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273727A2-7AD3-4C5F-98DE-DDD04A0F38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F710C488-AC55-411B-B896-12C9A9BCE381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>ReportName</t>
   </si>
   <si>
-    <t>Test Report</t>
-  </si>
-  <si>
     <t>ReportsDescription</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Unfiled Public Reports</t>
+  </si>
+  <si>
+    <t>TestReport</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,10 +444,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
